--- a/medicine/Handicap/Je_ne_veux_pas_rentrer_seul/Je_ne_veux_pas_rentrer_seul.xlsx
+++ b/medicine/Handicap/Je_ne_veux_pas_rentrer_seul/Je_ne_veux_pas_rentrer_seul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Je ne veux pas rentrer seul (Eu Não Quero Voltar Sozinho) est un film brésilien réalisé par Daniel Ribeiro, sorti en 2010. Il a a été entendu en long métrage en 2014 sous le titre Au premier regard.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Leonardo, 15 ans, aveugle, tombe amoureux du nouvel élève Gabriel, et doit composer avec la jalousie de sa meilleure amie, Giovana.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Je ne veux pas rentrer seul
 Titre original : Eu Não Quero Voltar Sozinho
@@ -585,7 +601,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ghilherme Lobo : Leonardo
 Tess Amorim : Giovana
@@ -620,9 +638,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2011, le film a reçu l'Iris Prize du meilleur court métrage[1] et le prix du meilleur court métrage dramatique à l'Outfest[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2011, le film a reçu l'Iris Prize du meilleur court métrage et le prix du meilleur court métrage dramatique à l'Outfest.
 </t>
         </is>
       </c>
